--- a/CustodyDemo_CDE_ADS_Catalog.xlsx
+++ b/CustodyDemo_CDE_ADS_Catalog.xlsx
@@ -5,30 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Source\Repos\FinData_Governance_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA60E07-CD9F-4557-8688-BA6149868E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA0275-9FF2-4D55-9BA8-6225AA03E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="ADS_Register" sheetId="2" r:id="rId2"/>
-    <sheet name="CDE_Catalog" sheetId="3" r:id="rId3"/>
-    <sheet name="CDE_to_ADS" sheetId="4" r:id="rId4"/>
-    <sheet name="CDE_Controls" sheetId="5" r:id="rId5"/>
-    <sheet name="Glossary" sheetId="6" r:id="rId6"/>
+    <sheet name="ADS_Register" sheetId="2" r:id="rId1"/>
+    <sheet name="CDE_Catalog" sheetId="3" r:id="rId2"/>
+    <sheet name="CDE_to_ADS" sheetId="4" r:id="rId3"/>
+    <sheet name="CDE_Controls" sheetId="5" r:id="rId4"/>
+    <sheet name="Glossary" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="248">
-  <si>
-    <t>Generated_At_UTC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="247">
   <si>
     <t>2025-09-16 01:46 UTC</t>
   </si>
@@ -1131,34 +1127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,425 +1155,425 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
       <c r="O3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
       <c r="O4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
       <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
       <c r="O5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>49</v>
       </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
       <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
       <c r="O6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
       <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
       <c r="O7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" t="s">
-        <v>50</v>
-      </c>
       <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" t="s">
-        <v>30</v>
-      </c>
       <c r="O8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>47</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
       <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
       <c r="O9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
@@ -1641,1536 +1614,1536 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>86</v>
-      </c>
-      <c r="I2" t="s">
-        <v>87</v>
       </c>
       <c r="J2">
         <v>3.15</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>89</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
         <v>91</v>
       </c>
-      <c r="R2" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>92</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>93</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>94</v>
-      </c>
-      <c r="V2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>101</v>
-      </c>
-      <c r="I3" t="s">
-        <v>102</v>
       </c>
       <c r="J3">
         <v>2.5499999999999998</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
         <v>88</v>
       </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>89</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>91</v>
       </c>
-      <c r="S3" t="s">
-        <v>92</v>
-      </c>
       <c r="T3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" t="s">
         <v>94</v>
-      </c>
-      <c r="V3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>107</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
         <v>109</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>110</v>
       </c>
       <c r="J4">
         <v>2.7</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
         <v>88</v>
       </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" t="s">
         <v>91</v>
       </c>
-      <c r="R4" t="s">
-        <v>109</v>
-      </c>
-      <c r="S4" t="s">
-        <v>92</v>
-      </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" t="s">
         <v>94</v>
-      </c>
-      <c r="V4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>112</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>113</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>114</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
         <v>115</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>116</v>
       </c>
       <c r="J5">
         <v>2.7</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>89</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>91</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>92</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>93</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>94</v>
-      </c>
-      <c r="V5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>118</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>119</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" t="s">
-        <v>121</v>
-      </c>
       <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
         <v>86</v>
-      </c>
-      <c r="I6" t="s">
-        <v>87</v>
       </c>
       <c r="J6">
         <v>3.15</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>89</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" t="s">
         <v>91</v>
       </c>
-      <c r="R6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6" t="s">
-        <v>92</v>
-      </c>
       <c r="T6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U6" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" t="s">
         <v>94</v>
-      </c>
-      <c r="V6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>123</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>124</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
         <v>125</v>
       </c>
-      <c r="F7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" t="s">
-        <v>126</v>
-      </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7">
         <v>2.7</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
         <v>88</v>
       </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" t="s">
         <v>91</v>
       </c>
-      <c r="R7" t="s">
-        <v>126</v>
-      </c>
-      <c r="S7" t="s">
-        <v>92</v>
-      </c>
       <c r="T7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" t="s">
         <v>94</v>
-      </c>
-      <c r="V7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>128</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>129</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
         <v>130</v>
       </c>
-      <c r="F8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" t="s">
-        <v>131</v>
-      </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J8">
         <v>2.7</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
         <v>88</v>
       </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>89</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
-        <v>131</v>
-      </c>
-      <c r="S8" t="s">
-        <v>92</v>
-      </c>
       <c r="T8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U8" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" t="s">
         <v>94</v>
-      </c>
-      <c r="V8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>132</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>133</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>134</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
         <v>135</v>
       </c>
-      <c r="F9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" t="s">
-        <v>136</v>
-      </c>
       <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
         <v>86</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
       </c>
       <c r="J9">
         <v>3.15</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
         <v>88</v>
       </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>89</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S9" t="s">
-        <v>92</v>
-      </c>
       <c r="T9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" t="s">
         <v>94</v>
-      </c>
-      <c r="V9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>138</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
         <v>139</v>
       </c>
-      <c r="F10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
         <v>140</v>
-      </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" t="s">
-        <v>141</v>
       </c>
       <c r="J10">
         <v>3.15</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
         <v>88</v>
       </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>89</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" t="s">
         <v>91</v>
       </c>
-      <c r="R10" t="s">
-        <v>140</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>92</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>93</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>94</v>
-      </c>
-      <c r="V10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
         <v>142</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>143</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
         <v>144</v>
       </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" t="s">
-        <v>145</v>
-      </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11">
         <v>3.15</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" t="s">
         <v>88</v>
       </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>89</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S11" t="s">
-        <v>92</v>
-      </c>
       <c r="T11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U11" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" t="s">
         <v>94</v>
-      </c>
-      <c r="V11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>147</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>148</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>149</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>150</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
         <v>151</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" t="s">
-        <v>152</v>
       </c>
       <c r="J12">
         <v>2.5499999999999998</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
         <v>88</v>
       </c>
-      <c r="M12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>89</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>150</v>
+      </c>
+      <c r="S12" t="s">
         <v>91</v>
       </c>
-      <c r="R12" t="s">
-        <v>151</v>
-      </c>
-      <c r="S12" t="s">
-        <v>92</v>
-      </c>
       <c r="T12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" t="s">
         <v>94</v>
-      </c>
-      <c r="V12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>153</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>154</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>155</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
         <v>156</v>
       </c>
-      <c r="F13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" t="s">
-        <v>157</v>
-      </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J13">
         <v>2.5499999999999998</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
         <v>88</v>
       </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>89</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" t="s">
         <v>91</v>
       </c>
-      <c r="R13" t="s">
-        <v>157</v>
-      </c>
-      <c r="S13" t="s">
-        <v>92</v>
-      </c>
       <c r="T13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U13" t="s">
+        <v>93</v>
+      </c>
+      <c r="V13" t="s">
         <v>94</v>
-      </c>
-      <c r="V13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>158</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>159</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>160</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>161</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>162</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
         <v>163</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>164</v>
       </c>
       <c r="J14">
         <v>3.45</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
         <v>88</v>
       </c>
-      <c r="M14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>89</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
+        <v>162</v>
+      </c>
+      <c r="S14" t="s">
         <v>91</v>
       </c>
-      <c r="R14" t="s">
-        <v>163</v>
-      </c>
-      <c r="S14" t="s">
-        <v>92</v>
-      </c>
       <c r="T14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U14" t="s">
+        <v>93</v>
+      </c>
+      <c r="V14" t="s">
         <v>94</v>
-      </c>
-      <c r="V14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>165</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>166</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>167</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>168</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>169</v>
       </c>
-      <c r="G15" t="s">
-        <v>170</v>
-      </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15">
         <v>3.45</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
         <v>88</v>
       </c>
-      <c r="M15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>89</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S15" t="s">
         <v>91</v>
       </c>
-      <c r="R15" t="s">
-        <v>170</v>
-      </c>
-      <c r="S15" t="s">
-        <v>92</v>
-      </c>
       <c r="T15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U15" t="s">
+        <v>93</v>
+      </c>
+      <c r="V15" t="s">
         <v>94</v>
-      </c>
-      <c r="V15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>171</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>172</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>173</v>
       </c>
-      <c r="E16" t="s">
-        <v>174</v>
-      </c>
       <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" t="s">
-        <v>170</v>
-      </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J16">
         <v>3.45</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" t="s">
         <v>88</v>
       </c>
-      <c r="M16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>89</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
+        <v>169</v>
+      </c>
+      <c r="S16" t="s">
         <v>91</v>
       </c>
-      <c r="R16" t="s">
-        <v>170</v>
-      </c>
-      <c r="S16" t="s">
-        <v>92</v>
-      </c>
       <c r="T16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U16" t="s">
+        <v>93</v>
+      </c>
+      <c r="V16" t="s">
         <v>94</v>
-      </c>
-      <c r="V16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
         <v>175</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>176</v>
       </c>
-      <c r="E17" t="s">
-        <v>177</v>
-      </c>
       <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
         <v>108</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
         <v>109</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" t="s">
-        <v>110</v>
       </c>
       <c r="J17">
         <v>2.7</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" t="s">
         <v>88</v>
       </c>
-      <c r="M17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>89</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" t="s">
         <v>91</v>
       </c>
-      <c r="R17" t="s">
-        <v>109</v>
-      </c>
-      <c r="S17" t="s">
-        <v>92</v>
-      </c>
       <c r="T17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U17" t="s">
+        <v>93</v>
+      </c>
+      <c r="V17" t="s">
         <v>94</v>
-      </c>
-      <c r="V17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>178</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>179</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>180</v>
       </c>
-      <c r="E18" t="s">
-        <v>181</v>
-      </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18">
         <v>3.15</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
         <v>88</v>
       </c>
-      <c r="M18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>89</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>90</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>91</v>
       </c>
-      <c r="S18" t="s">
-        <v>92</v>
-      </c>
       <c r="T18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U18" t="s">
+        <v>93</v>
+      </c>
+      <c r="V18" t="s">
         <v>94</v>
-      </c>
-      <c r="V18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
         <v>182</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>183</v>
       </c>
-      <c r="E19" t="s">
-        <v>184</v>
-      </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J19">
         <v>3.15</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="s">
         <v>88</v>
       </c>
-      <c r="M19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>89</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
+        <v>144</v>
+      </c>
+      <c r="S19" t="s">
         <v>91</v>
       </c>
-      <c r="R19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S19" t="s">
-        <v>92</v>
-      </c>
       <c r="T19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U19" t="s">
+        <v>93</v>
+      </c>
+      <c r="V19" t="s">
         <v>94</v>
-      </c>
-      <c r="V19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>185</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>186</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>187</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>189</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
         <v>190</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" t="s">
-        <v>191</v>
       </c>
       <c r="J20">
         <v>2.7</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="s">
         <v>88</v>
       </c>
-      <c r="M20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>89</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>90</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
+        <v>189</v>
+      </c>
+      <c r="S20" t="s">
         <v>91</v>
       </c>
-      <c r="R20" t="s">
-        <v>190</v>
-      </c>
-      <c r="S20" t="s">
-        <v>92</v>
-      </c>
       <c r="T20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U20" t="s">
+        <v>93</v>
+      </c>
+      <c r="V20" t="s">
         <v>94</v>
-      </c>
-      <c r="V20" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
         <v>192</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>193</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>194</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
         <v>195</v>
       </c>
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" t="s">
-        <v>196</v>
-      </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J21">
         <v>2.5499999999999998</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" t="s">
         <v>88</v>
       </c>
-      <c r="M21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>89</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
+        <v>195</v>
+      </c>
+      <c r="S21" t="s">
         <v>91</v>
       </c>
-      <c r="R21" t="s">
-        <v>196</v>
-      </c>
-      <c r="S21" t="s">
-        <v>92</v>
-      </c>
       <c r="T21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U21" t="s">
+        <v>93</v>
+      </c>
+      <c r="V21" t="s">
         <v>94</v>
-      </c>
-      <c r="V21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>197</v>
       </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>198</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>199</v>
       </c>
-      <c r="E22" t="s">
-        <v>200</v>
-      </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22">
         <v>3.45</v>
       </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" t="s">
         <v>88</v>
       </c>
-      <c r="M22" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>89</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>90</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>91</v>
       </c>
-      <c r="S22" t="s">
-        <v>92</v>
-      </c>
       <c r="T22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U22" t="s">
+        <v>93</v>
+      </c>
+      <c r="V22" t="s">
         <v>94</v>
-      </c>
-      <c r="V22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
         <v>201</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>202</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>203</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
         <v>204</v>
-      </c>
-      <c r="F23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" t="s">
-        <v>205</v>
       </c>
       <c r="J23">
         <v>2.7</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" t="s">
         <v>88</v>
       </c>
-      <c r="M23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>89</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>90</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>91</v>
       </c>
-      <c r="S23" t="s">
-        <v>92</v>
-      </c>
       <c r="T23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U23" t="s">
+        <v>93</v>
+      </c>
+      <c r="V23" t="s">
         <v>94</v>
-      </c>
-      <c r="V23" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -3195,324 +3168,324 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
         <v>137</v>
       </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
         <v>142</v>
       </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
         <v>175</v>
       </c>
-      <c r="B17" t="s">
-        <v>176</v>
-      </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
         <v>182</v>
       </c>
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3541,163 +3514,163 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
         <v>212</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>213</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>214</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>215</v>
       </c>
-      <c r="F2" t="s">
-        <v>216</v>
-      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
         <v>217</v>
       </c>
-      <c r="C3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" t="s">
-        <v>218</v>
-      </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
         <v>219</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>220</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>221</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>222</v>
       </c>
-      <c r="F4" t="s">
-        <v>223</v>
-      </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
         <v>224</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>225</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>226</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
         <v>227</v>
-      </c>
-      <c r="F5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
         <v>229</v>
       </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>230</v>
       </c>
-      <c r="E6" t="s">
-        <v>231</v>
-      </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
         <v>232</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>233</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>234</v>
       </c>
-      <c r="E7" t="s">
-        <v>235</v>
-      </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3705,12 +3678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3721,50 +3694,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
         <v>238</v>
-      </c>
-      <c r="B2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" t="s">
         <v>240</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
         <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" t="s">
         <v>244</v>
-      </c>
-      <c r="B5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
         <v>246</v>
-      </c>
-      <c r="B6" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
